--- a/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
+++ b/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.84672112862012</v>
+        <v>37.87803307218245</v>
       </c>
       <c r="C11" t="n">
-        <v>101.8207547995177</v>
+        <v>101.9147578143712</v>
       </c>
       <c r="D11" t="n">
-        <v>123.1353359644813</v>
+        <v>123.2296616800679</v>
       </c>
     </row>
     <row r="12">
